--- a/data/trans_orig/P71_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P71_R2-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>73291</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58030</v>
+        <v>56690</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>89948</v>
+        <v>89295</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07254560865037848</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05743993404120534</v>
+        <v>0.05611363650892501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08903402761316316</v>
+        <v>0.08838765407264748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>57</v>
@@ -765,19 +765,19 @@
         <v>57398</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43563</v>
+        <v>44543</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72934</v>
+        <v>74692</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04472159838595958</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03394194116822948</v>
+        <v>0.03470551868227578</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05682653189647473</v>
+        <v>0.05819635660104445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>129</v>
@@ -786,19 +786,19 @@
         <v>130688</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111023</v>
+        <v>108238</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>153399</v>
+        <v>154552</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05697672175776765</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04840318556362806</v>
+        <v>0.04718882806229498</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06687809204053001</v>
+        <v>0.06738044398271449</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>260669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232339</v>
+        <v>234910</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290489</v>
+        <v>287759</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2580188718974343</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2299771735691923</v>
+        <v>0.2325221156539476</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2875364665237312</v>
+        <v>0.2848340455602169</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -836,19 +836,19 @@
         <v>284937</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255159</v>
+        <v>255413</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314438</v>
+        <v>314820</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2220096355012177</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1988075187116406</v>
+        <v>0.1990054932745104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2449949733150541</v>
+        <v>0.2452928436659815</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>552</v>
@@ -857,19 +857,19 @@
         <v>545606</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>507877</v>
+        <v>504867</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>587499</v>
+        <v>588424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2378699529165172</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2214208878513307</v>
+        <v>0.2201088560741009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2561339620102207</v>
+        <v>0.2565376411932049</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>373639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>340548</v>
+        <v>343107</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>404780</v>
+        <v>403203</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3698407731483444</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3370858153827715</v>
+        <v>0.3396192047047459</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4006654512479009</v>
+        <v>0.3991046472553502</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>417</v>
@@ -907,19 +907,19 @@
         <v>426378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>391728</v>
+        <v>391360</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>459433</v>
+        <v>461020</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3322133122907207</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3052155840798647</v>
+        <v>0.3049288753452533</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3579685980480031</v>
+        <v>0.3592047489488298</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>791</v>
@@ -928,19 +928,19 @@
         <v>800017</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>755430</v>
+        <v>755350</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>844681</v>
+        <v>849686</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3487863788830568</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3293478522327074</v>
+        <v>0.3293126332320165</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3682586376214634</v>
+        <v>0.3704409940661949</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>302672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>273500</v>
+        <v>274639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>332099</v>
+        <v>332491</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2995947463038429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2707195471091335</v>
+        <v>0.2718468113292287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3287230999645532</v>
+        <v>0.3291110358464804</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>499</v>
@@ -978,19 +978,19 @@
         <v>514733</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>478318</v>
+        <v>482292</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>550875</v>
+        <v>551754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4010554538221021</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3726825950814428</v>
+        <v>0.3757786446627812</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4292155692228169</v>
+        <v>0.4299003218142954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>803</v>
@@ -999,19 +999,19 @@
         <v>817405</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>773950</v>
+        <v>771697</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>867293</v>
+        <v>863931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3563669464426584</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3374217004292204</v>
+        <v>0.3364395776704759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3781168137251347</v>
+        <v>0.3766510524628581</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>193438</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>167244</v>
+        <v>168230</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>221298</v>
+        <v>222857</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1155639914520598</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09991532185426864</v>
+        <v>0.1005044476931446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1322082571986038</v>
+        <v>0.1331397362567038</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>154</v>
@@ -1124,19 +1124,19 @@
         <v>151858</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>131678</v>
+        <v>130206</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>177172</v>
+        <v>176228</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09722704488165403</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08430679204674776</v>
+        <v>0.08336453941639359</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1134340626250245</v>
+        <v>0.1128297998406534</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>345</v>
@@ -1145,19 +1145,19 @@
         <v>345296</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>313896</v>
+        <v>309729</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>381440</v>
+        <v>382456</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1067127770315953</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09700858164368713</v>
+        <v>0.09572075674650901</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1178828437526122</v>
+        <v>0.1181971077528718</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>646018</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>609649</v>
+        <v>608750</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>685696</v>
+        <v>690365</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3859453649594805</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3642174952301823</v>
+        <v>0.3636806314335692</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4096495047831641</v>
+        <v>0.412439455181934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>513</v>
@@ -1195,19 +1195,19 @@
         <v>517357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>482014</v>
+        <v>478650</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>554011</v>
+        <v>553164</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3312374315559497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.308609136496116</v>
+        <v>0.3064551529531241</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3547048403420786</v>
+        <v>0.3541627468036178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1142</v>
@@ -1216,19 +1216,19 @@
         <v>1163375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1110863</v>
+        <v>1106857</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1218250</v>
+        <v>1219839</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3595379340823763</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3433092265460676</v>
+        <v>0.3420711519473656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3764969249789166</v>
+        <v>0.3769878780433886</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>590606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>551957</v>
+        <v>551254</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627844</v>
+        <v>630989</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3528408259583488</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3297513455803789</v>
+        <v>0.329331383422733</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3750875845221852</v>
+        <v>0.3769667664483564</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -1266,19 +1266,19 @@
         <v>541591</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>502520</v>
+        <v>502644</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>580321</v>
+        <v>578598</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3467534007473341</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3217378544078536</v>
+        <v>0.3218174664026296</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3715501447883107</v>
+        <v>0.3704466007717617</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1102</v>
@@ -1287,19 +1287,19 @@
         <v>1132197</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1082808</v>
+        <v>1078397</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1186951</v>
+        <v>1184936</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3499024356650492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3346388405174984</v>
+        <v>0.3332756943658082</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3668240181887679</v>
+        <v>0.366201384852943</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>243797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>215012</v>
+        <v>214546</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>273438</v>
+        <v>273312</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1456498176301108</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1284526356562688</v>
+        <v>0.128174687130089</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1633579554233252</v>
+        <v>0.163282300069722</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>335</v>
@@ -1337,19 +1337,19 @@
         <v>351085</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>317270</v>
+        <v>318503</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>384928</v>
+        <v>381126</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2247821228150622</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.203131725891308</v>
+        <v>0.2039210532418789</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2464498284437852</v>
+        <v>0.244015394436494</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>569</v>
@@ -1358,19 +1358,19 @@
         <v>594883</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>550921</v>
+        <v>552240</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>639572</v>
+        <v>639825</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1838468532209792</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1702606572891079</v>
+        <v>0.1706683782173851</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1976578551674119</v>
+        <v>0.1977360794887554</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>180471</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159725</v>
+        <v>158795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>204606</v>
+        <v>204516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3301100105364317</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2921613237445718</v>
+        <v>0.2904612113567577</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3742558954324898</v>
+        <v>0.3740919736319317</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -1483,19 +1483,19 @@
         <v>131902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114121</v>
+        <v>112893</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153025</v>
+        <v>150620</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.280863332398101</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2430011480993501</v>
+        <v>0.2403856299932835</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3258418544968336</v>
+        <v>0.3207199607492567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>301</v>
@@ -1504,19 +1504,19 @@
         <v>312373</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>282912</v>
+        <v>283482</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>342306</v>
+        <v>343819</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3073538580100755</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2783661051237673</v>
+        <v>0.2789267080512938</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3368057319235566</v>
+        <v>0.3382942107726344</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>214908</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>194722</v>
+        <v>191571</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>240559</v>
+        <v>238018</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3930995347828309</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3561779134709543</v>
+        <v>0.3504137792622181</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4400193963827923</v>
+        <v>0.4353714793132201</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>183</v>
@@ -1554,19 +1554,19 @@
         <v>191645</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>171992</v>
+        <v>170817</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>213207</v>
+        <v>213539</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4080762562452014</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3662278514082045</v>
+        <v>0.3637251952871292</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4539880590953499</v>
+        <v>0.4546959042146196</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>391</v>
@@ -1575,19 +1575,19 @@
         <v>406553</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>378290</v>
+        <v>374747</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>437204</v>
+        <v>438199</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4000200535025938</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3722110063879314</v>
+        <v>0.368725682428039</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4301783529833461</v>
+        <v>0.4311582274471717</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>113649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93801</v>
+        <v>94111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134419</v>
+        <v>132245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2078816594626982</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1715771646285441</v>
+        <v>0.1721438827326626</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2458737950415838</v>
+        <v>0.2418965493798194</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -1625,19 +1625,19 @@
         <v>89569</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74988</v>
+        <v>73513</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109011</v>
+        <v>109566</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1907215817190507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1596751193790804</v>
+        <v>0.1565329724968843</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2321196701276468</v>
+        <v>0.2333030164703545</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -1646,19 +1646,19 @@
         <v>203218</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>176737</v>
+        <v>177098</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>228903</v>
+        <v>230325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1999522444998922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1738972128796449</v>
+        <v>0.174252295588811</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.225225215699313</v>
+        <v>0.2266235916391267</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>37672</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27323</v>
+        <v>27341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51198</v>
+        <v>51813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06890879521803915</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04997793903623506</v>
+        <v>0.05001155877780184</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09364856185118377</v>
+        <v>0.09477474441713413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -1696,19 +1696,19 @@
         <v>56515</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>42508</v>
+        <v>43275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>71968</v>
+        <v>73025</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1203388296376468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09051256546175669</v>
+        <v>0.0921468737069617</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1532435921546492</v>
+        <v>0.1554949895475109</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -1717,19 +1717,19 @@
         <v>94187</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>76493</v>
+        <v>76729</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>116746</v>
+        <v>114138</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09267384398743851</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07526360558669815</v>
+        <v>0.07549597625976724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1148696399582489</v>
+        <v>0.1123039916613177</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>447200</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>411394</v>
+        <v>409451</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>486312</v>
+        <v>486186</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1384163468228202</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.127333980430638</v>
+        <v>0.1267325874054654</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1505222996704913</v>
+        <v>0.1504833771714903</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>339</v>
@@ -1842,19 +1842,19 @@
         <v>341158</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>308108</v>
+        <v>307863</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>377236</v>
+        <v>374113</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1029144225665804</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09294434220971495</v>
+        <v>0.09287060364939992</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1137977052934542</v>
+        <v>0.1128556730247787</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>775</v>
@@ -1863,19 +1863,19 @@
         <v>788358</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>736478</v>
+        <v>740125</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>839486</v>
+        <v>842520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1204372142709813</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1125115648541151</v>
+        <v>0.1130686952145792</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1282480847986637</v>
+        <v>0.1287115967525203</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>1121594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1068823</v>
+        <v>1063618</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1179862</v>
+        <v>1177723</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3471537242441361</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.330820129502689</v>
+        <v>0.329209026092477</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3651887603163465</v>
+        <v>0.3645266925462715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>982</v>
@@ -1913,19 +1913,19 @@
         <v>993940</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>942331</v>
+        <v>941542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1046848</v>
+        <v>1050818</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2998338109292804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2842655434760554</v>
+        <v>0.284027400948655</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3157943034686072</v>
+        <v>0.3169917660510617</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2085</v>
@@ -1934,19 +1934,19 @@
         <v>2115534</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2038655</v>
+        <v>2039070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2190674</v>
+        <v>2188766</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3231896430949351</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3114448639411263</v>
+        <v>0.3115082967073393</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3346686867261827</v>
+        <v>0.3343772032504074</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>1077894</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1021870</v>
+        <v>1023562</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1133600</v>
+        <v>1126473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3336276168208561</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3162871422766038</v>
+        <v>0.3168108180737333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3508696394458807</v>
+        <v>0.3486639066890131</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1028</v>
@@ -1984,19 +1984,19 @@
         <v>1057538</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1000765</v>
+        <v>1007663</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1110350</v>
+        <v>1114560</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.319018943712194</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3018927754036018</v>
+        <v>0.3039736626507335</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3349501990213267</v>
+        <v>0.3362202441150174</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2083</v>
@@ -2005,19 +2005,19 @@
         <v>2135432</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2058686</v>
+        <v>2064230</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2213631</v>
+        <v>2215437</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3262293905069414</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3145050239581297</v>
+        <v>0.315351919133231</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3381758542454951</v>
+        <v>0.3384517329354192</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>584141</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>885</v>
@@ -2055,19 +2055,19 @@
         <v>922333</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1459</v>
@@ -2076,19 +2076,19 @@
         <v>1506475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>79217</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63197</v>
+        <v>63121</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98974</v>
+        <v>98120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08182840873870682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06528103618018238</v>
+        <v>0.06520253899723895</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1022374300339345</v>
+        <v>0.1013546825928183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>96</v>
@@ -2440,19 +2440,19 @@
         <v>103455</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>86313</v>
+        <v>85091</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123403</v>
+        <v>126469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07776432451784449</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06487966400348008</v>
+        <v>0.06396076796006087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09275884870961172</v>
+        <v>0.09506373371661637</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -2461,19 +2461,19 @@
         <v>182671</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>155056</v>
+        <v>156065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>210626</v>
+        <v>209943</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07947607632341078</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06746144900547633</v>
+        <v>0.06790042559138729</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09163845407637045</v>
+        <v>0.09134142814825748</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>213549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188409</v>
+        <v>187825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>241325</v>
+        <v>241951</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2205901699258151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1946210163507748</v>
+        <v>0.1940183038341324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2492821440505606</v>
+        <v>0.2499287790546037</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>300</v>
@@ -2511,19 +2511,19 @@
         <v>321765</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288526</v>
+        <v>290827</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>354984</v>
+        <v>354568</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2418628881564831</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2168777707236821</v>
+        <v>0.2186074030916486</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2668331174049479</v>
+        <v>0.2665200671235454</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>500</v>
@@ -2532,19 +2532,19 @@
         <v>535314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>497557</v>
+        <v>493382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>579246</v>
+        <v>578548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2329030310615623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2164756549198394</v>
+        <v>0.2146594314500961</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2520169643802197</v>
+        <v>0.2517130555772761</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>281295</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>254883</v>
+        <v>252310</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>310627</v>
+        <v>312767</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2905701344298784</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2632863698114765</v>
+        <v>0.2606289988539246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3208692911604686</v>
+        <v>0.3230796381584884</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>397</v>
@@ -2582,19 +2582,19 @@
         <v>421656</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>388222</v>
+        <v>388340</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>454904</v>
+        <v>456659</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3169486608218847</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2918173296600756</v>
+        <v>0.2919057363960659</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3419399457336541</v>
+        <v>0.3432593825315266</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>658</v>
@@ -2603,19 +2603,19 @@
         <v>702952</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>657001</v>
+        <v>660587</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>747640</v>
+        <v>747731</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3058382881706718</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2858461133623109</v>
+        <v>0.2874062920320343</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3252812514073344</v>
+        <v>0.3253206270723497</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>394020</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>361829</v>
+        <v>362372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>427754</v>
+        <v>425142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4070112869055997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3737588325807016</v>
+        <v>0.3743195797891652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4418581188910477</v>
+        <v>0.4391592173432267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>447</v>
@@ -2653,19 +2653,19 @@
         <v>483485</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>446511</v>
+        <v>448608</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>515938</v>
+        <v>518900</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3634241265037876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3356315247026248</v>
+        <v>0.3372074172389229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3878179368466376</v>
+        <v>0.3900447393945489</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>815</v>
@@ -2674,19 +2674,19 @@
         <v>877505</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>833575</v>
+        <v>829009</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>928224</v>
+        <v>923485</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3817826044443551</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3626696155545443</v>
+        <v>0.3606830850134712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4038491944159704</v>
+        <v>0.4017873913431899</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>257209</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>229050</v>
+        <v>229013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>290920</v>
+        <v>289271</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.131307160019177</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.116931713900896</v>
+        <v>0.1169127170080845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1485166547293983</v>
+        <v>0.1476748607861934</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>185</v>
@@ -2799,19 +2799,19 @@
         <v>200445</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>173761</v>
+        <v>173620</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>230497</v>
+        <v>226609</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1145014582718071</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09925874708585759</v>
+        <v>0.09917834965768235</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1316685731583041</v>
+        <v>0.1294472807564161</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>426</v>
@@ -2820,19 +2820,19 @@
         <v>457654</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>409421</v>
+        <v>416910</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>496623</v>
+        <v>506233</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1233760570193684</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1103733197046029</v>
+        <v>0.1123920967105552</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1338813966933195</v>
+        <v>0.1364720969559441</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>502440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>462854</v>
+        <v>462861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>540199</v>
+        <v>541551</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2564992340412618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.236290150680507</v>
+        <v>0.2362936752728888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2757750145689248</v>
+        <v>0.2764654674911768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>395</v>
@@ -2870,19 +2870,19 @@
         <v>417097</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>381507</v>
+        <v>383299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>455512</v>
+        <v>456526</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2382612809015337</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2179307718093494</v>
+        <v>0.2189547097042252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2602054689824719</v>
+        <v>0.2607844972482158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>865</v>
@@ -2891,19 +2891,19 @@
         <v>919537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>866142</v>
+        <v>864984</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>975585</v>
+        <v>974802</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2478922096497036</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2334976543790637</v>
+        <v>0.2331854881694596</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2630016586477456</v>
+        <v>0.2627907341146409</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>609125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>566036</v>
+        <v>567035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>649186</v>
+        <v>651692</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3109626207545846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2889649746843363</v>
+        <v>0.289475230900303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3314138929039785</v>
+        <v>0.332693227114506</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>526</v>
@@ -2941,19 +2941,19 @@
         <v>565242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>525990</v>
+        <v>524917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>606694</v>
+        <v>605919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3228873044995585</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3004649761337019</v>
+        <v>0.2998519314968139</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3465660669027233</v>
+        <v>0.3461234844952286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1110</v>
@@ -2962,19 +2962,19 @@
         <v>1174367</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1122032</v>
+        <v>1115185</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1233701</v>
+        <v>1234168</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3165902283631947</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3024815330907213</v>
+        <v>0.3006357353946926</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3325856693304596</v>
+        <v>0.3327115501208273</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>590063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>547144</v>
+        <v>546494</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>631687</v>
+        <v>632623</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3012309851849765</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2793207633453202</v>
+        <v>0.2789889883840422</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.322480617004466</v>
+        <v>0.3229582546241514</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>523</v>
@@ -3012,19 +3012,19 @@
         <v>567802</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>526381</v>
+        <v>527953</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>611213</v>
+        <v>609451</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3243499563271007</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.300688192110724</v>
+        <v>0.301586168626351</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3491477881077053</v>
+        <v>0.348141365655107</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1079</v>
@@ -3033,19 +3033,19 @@
         <v>1157865</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1097593</v>
+        <v>1100525</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1213265</v>
+        <v>1217062</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3121415049677333</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2958932326836247</v>
+        <v>0.2966835983079557</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3270765004600628</v>
+        <v>0.328099974693692</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>166597</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143706</v>
+        <v>142898</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>187624</v>
+        <v>189295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3505605415761081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3023927311772929</v>
+        <v>0.3006938960361655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3948067655790217</v>
+        <v>0.3983232507386255</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -3158,19 +3158,19 @@
         <v>147867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126843</v>
+        <v>127935</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168708</v>
+        <v>170270</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3230691945401029</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2771346115494789</v>
+        <v>0.2795187241770516</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3686025989469939</v>
+        <v>0.3720144979837472</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>277</v>
@@ -3179,19 +3179,19 @@
         <v>314464</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>284181</v>
+        <v>283855</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>344387</v>
+        <v>343997</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3370732009151116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3046133300003419</v>
+        <v>0.3042638146180862</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3691476793841575</v>
+        <v>0.368729425766051</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>167073</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>147584</v>
+        <v>145095</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>190537</v>
+        <v>189970</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3515632003699186</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3105529474569207</v>
+        <v>0.3053163955358858</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4009382472480542</v>
+        <v>0.3997449567052004</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>126</v>
@@ -3229,19 +3229,19 @@
         <v>136934</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>117264</v>
+        <v>115991</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>159680</v>
+        <v>158543</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2991810229460567</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2562042314088687</v>
+        <v>0.2534230405327543</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3488781116994624</v>
+        <v>0.3463931960909692</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>284</v>
@@ -3250,19 +3250,19 @@
         <v>304007</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>274298</v>
+        <v>273982</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>337797</v>
+        <v>335309</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3258643406321585</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2940195625681196</v>
+        <v>0.2936803294153648</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3620840767019071</v>
+        <v>0.359416946763454</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>83464</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67309</v>
+        <v>66742</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103516</v>
+        <v>103737</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1756284969816566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1416341256044757</v>
+        <v>0.1404418648773403</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2178228484010385</v>
+        <v>0.2182880559717799</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -3300,19 +3300,19 @@
         <v>105363</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87329</v>
+        <v>86249</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123021</v>
+        <v>125895</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2302023589310689</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1908022710951119</v>
+        <v>0.188442631605611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2687821621148204</v>
+        <v>0.275063074248208</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>171</v>
@@ -3321,19 +3321,19 @@
         <v>188826</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>163564</v>
+        <v>163588</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>215782</v>
+        <v>216217</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2024026039882689</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1753239994118949</v>
+        <v>0.1753490897749455</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2312956980711216</v>
+        <v>0.2317623515693873</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>58096</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45340</v>
+        <v>44247</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>75393</v>
+        <v>76810</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1222477610723166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0954068013573348</v>
+        <v>0.09310769739671916</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1586454712002051</v>
+        <v>0.16162709986267</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -3371,19 +3371,19 @@
         <v>67532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53719</v>
+        <v>52250</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83854</v>
+        <v>84763</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1475474235827715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1173686706564059</v>
+        <v>0.1141580785022317</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1832092891365187</v>
+        <v>0.1851955368086134</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>112</v>
@@ -3392,19 +3392,19 @@
         <v>125628</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104313</v>
+        <v>104593</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148560</v>
+        <v>150825</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.134659854464461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1118132547325843</v>
+        <v>0.1121125871908492</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1592409191636054</v>
+        <v>0.16166851955194</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>503023</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>461196</v>
+        <v>461340</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>550986</v>
+        <v>550070</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.14785439591423</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.135560384925683</v>
+        <v>0.135602459319419</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1619524009598237</v>
+        <v>0.1616832906385936</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>411</v>
@@ -3517,19 +3517,19 @@
         <v>451767</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>408814</v>
+        <v>412890</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>488096</v>
+        <v>493624</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1276666593247484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1155286067348321</v>
+        <v>0.1166802248507863</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.137933109935907</v>
+        <v>0.139495194902274</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>872</v>
@@ -3538,19 +3538,19 @@
         <v>954789</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>897804</v>
+        <v>897667</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1012649</v>
+        <v>1018644</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1375620257468194</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1293518856913192</v>
+        <v>0.1293320241991345</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1458982783637619</v>
+        <v>0.1467618774479973</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>883063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>831591</v>
+        <v>838464</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>933314</v>
+        <v>937303</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2595603243973624</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.244431269535636</v>
+        <v>0.2464514534176444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2743308121992448</v>
+        <v>0.2755032879996554</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>821</v>
@@ -3588,19 +3588,19 @@
         <v>875796</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>823549</v>
+        <v>823332</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>934414</v>
+        <v>925395</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2474948076303911</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.232730081964439</v>
+        <v>0.2326689350497651</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2640601206903898</v>
+        <v>0.2615113916393465</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1649</v>
@@ -3609,19 +3609,19 @@
         <v>1758858</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1680143</v>
+        <v>1687265</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1827482</v>
+        <v>1836040</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2534089282625688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2420680123970561</v>
+        <v>0.2430939914233737</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2632958616380183</v>
+        <v>0.264528980219465</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>973885</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>915079</v>
+        <v>915664</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1023617</v>
+        <v>1030889</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2862557944388069</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2689710987422426</v>
+        <v>0.2691429136056755</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3008737977668446</v>
+        <v>0.3030112921846905</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1018</v>
@@ -3659,19 +3659,19 @@
         <v>1092261</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1031587</v>
+        <v>1035772</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1147405</v>
+        <v>1147342</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3086665818471259</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2915206000856992</v>
+        <v>0.2927031262671861</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3242499943523734</v>
+        <v>0.3242322043726869</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1939</v>
@@ -3680,19 +3680,19 @@
         <v>2066145</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1986429</v>
+        <v>1984397</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2141192</v>
+        <v>2140629</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2976815488183119</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.286196275663986</v>
+        <v>0.2859035566793581</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3084938905837943</v>
+        <v>0.3084127634211459</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>1042178</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>993092</v>
+        <v>985324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1101874</v>
+        <v>1089849</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3063294852496006</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2919015140896732</v>
+        <v>0.289618311415339</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3238760989257124</v>
+        <v>0.320341449570003</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1030</v>
@@ -3730,19 +3730,19 @@
         <v>1118820</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1061940</v>
+        <v>1059694</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1177464</v>
+        <v>1178019</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3161719511977347</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3000980553375811</v>
+        <v>0.2994633644537888</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3327445600196953</v>
+        <v>0.3329012997657753</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2006</v>
@@ -3751,19 +3751,19 @@
         <v>2160998</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2078383</v>
+        <v>2080461</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2245326</v>
+        <v>2239769</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3113474971722998</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.299444728381895</v>
+        <v>0.299744129365747</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3234971169282431</v>
+        <v>0.3226965764767466</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>74826</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60154</v>
+        <v>58784</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92272</v>
+        <v>92379</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1001287962522624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08049574249267512</v>
+        <v>0.07866198914981051</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1234738983640955</v>
+        <v>0.1236178064135611</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -4115,19 +4115,19 @@
         <v>79663</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62253</v>
+        <v>61644</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97746</v>
+        <v>99474</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08059256648252644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06297877957972037</v>
+        <v>0.06236308974800846</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09888574997874637</v>
+        <v>0.1006345763752526</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>143</v>
@@ -4136,19 +4136,19 @@
         <v>154489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131191</v>
+        <v>131331</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180295</v>
+        <v>182539</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08900347507941067</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07558066218843712</v>
+        <v>0.0756617503271815</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1038705781904445</v>
+        <v>0.105163218744692</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>125088</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>105996</v>
+        <v>105634</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146207</v>
+        <v>145742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1673865792946811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1418386558758448</v>
+        <v>0.1413540479909942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1956477489020425</v>
+        <v>0.1950246124614902</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>149</v>
@@ -4186,19 +4186,19 @@
         <v>169912</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>146666</v>
+        <v>146778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>196330</v>
+        <v>196989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1718941965519254</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1483767171202518</v>
+        <v>0.1484901809446089</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1986201206610972</v>
+        <v>0.1992864640373188</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>278</v>
@@ -4207,19 +4207,19 @@
         <v>295000</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>264183</v>
+        <v>265600</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>326244</v>
+        <v>326893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1699535377253615</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1521994167301068</v>
+        <v>0.1530159409695572</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1879533576214196</v>
+        <v>0.1883273357216372</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>192661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>169202</v>
+        <v>169490</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>215192</v>
+        <v>216369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2578101816170752</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2264177873537465</v>
+        <v>0.2268043415130571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2879604311100852</v>
+        <v>0.2895344510207366</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>222</v>
@@ -4257,19 +4257,19 @@
         <v>245847</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>220469</v>
+        <v>218150</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>273819</v>
+        <v>274657</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2487149782932222</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2230411608207036</v>
+        <v>0.220694448103894</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2770128967234657</v>
+        <v>0.2778603927413844</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>421</v>
@@ -4278,19 +4278,19 @@
         <v>438509</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>408181</v>
+        <v>403910</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>477785</v>
+        <v>476458</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2526307248179437</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2351588367626989</v>
+        <v>0.232697959996563</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2752584392142745</v>
+        <v>0.2744939921524944</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>354723</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>328035</v>
+        <v>326305</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>381809</v>
+        <v>381570</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4746744428359813</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4389614808255563</v>
+        <v>0.4366466511887355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.510918829556179</v>
+        <v>0.5105995450478984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>448</v>
@@ -4328,19 +4328,19 @@
         <v>493047</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>459337</v>
+        <v>461570</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>524394</v>
+        <v>525697</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.498798258672326</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4646953052416466</v>
+        <v>0.4669536176838626</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5305109761744918</v>
+        <v>0.5318285474181482</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>800</v>
@@ -4349,19 +4349,19 @@
         <v>847771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>805194</v>
+        <v>805358</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>889385</v>
+        <v>888931</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4884122623772842</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4638828807164581</v>
+        <v>0.4639779124898246</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5123868323185626</v>
+        <v>0.5121250579221505</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>248516</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>218468</v>
+        <v>218889</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>280043</v>
+        <v>278858</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1207402689398767</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1061412478298049</v>
+        <v>0.1063459964424446</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.136057574919575</v>
+        <v>0.1354817430867559</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>226</v>
@@ -4474,19 +4474,19 @@
         <v>236008</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>205993</v>
+        <v>208550</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>264344</v>
+        <v>266470</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1193281826767475</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1041524113048085</v>
+        <v>0.1054453530435621</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1336551616004482</v>
+        <v>0.1347300239690453</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>456</v>
@@ -4495,19 +4495,19 @@
         <v>484524</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>445313</v>
+        <v>441878</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>529606</v>
+        <v>529010</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1200483023372691</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1103332244231405</v>
+        <v>0.1094819925525972</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1312179276090207</v>
+        <v>0.1310703597775155</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>508519</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>464042</v>
+        <v>471174</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>545102</v>
+        <v>547654</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2470611357600465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2254523870523335</v>
+        <v>0.2289171361223236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2648348384959969</v>
+        <v>0.2660746806808972</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>405</v>
@@ -4545,19 +4545,19 @@
         <v>421328</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>387486</v>
+        <v>385730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>457954</v>
+        <v>455328</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2130279453476075</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1959171446640748</v>
+        <v>0.1950294206636222</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2315467846695652</v>
+        <v>0.2302190499946359</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>887</v>
@@ -4566,19 +4566,19 @@
         <v>929847</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>879053</v>
+        <v>875004</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>983971</v>
+        <v>984221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2303838039563875</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2177988362547872</v>
+        <v>0.2167955582680086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.243793788770784</v>
+        <v>0.2438558362930518</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>595606</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>555725</v>
+        <v>553067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>636175</v>
+        <v>634121</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2893720743566887</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2699957419692783</v>
+        <v>0.2687042889743226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3090822481013529</v>
+        <v>0.3080842971569665</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>605</v>
@@ -4616,19 +4616,19 @@
         <v>634012</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595653</v>
+        <v>594504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>678647</v>
+        <v>674404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3205634400509296</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3011688238650944</v>
+        <v>0.3005877205086649</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3431317815965442</v>
+        <v>0.3409863593761481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1174</v>
@@ -4637,19 +4637,19 @@
         <v>1229618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1170923</v>
+        <v>1168428</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1291632</v>
+        <v>1287048</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3046568228268761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.29011418972123</v>
+        <v>0.2894959032603811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.320021546281158</v>
+        <v>0.3188857798957603</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>705630</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>659520</v>
+        <v>666134</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>751450</v>
+        <v>751913</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3428265209433881</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3204240338672812</v>
+        <v>0.3236372862260805</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3650877066510588</v>
+        <v>0.3653127889555201</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>662</v>
@@ -4687,19 +4687,19 @@
         <v>686457</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>644153</v>
+        <v>640187</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>731552</v>
+        <v>729158</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3470804319247154</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3256909964440594</v>
+        <v>0.3236857524119149</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3698809731295413</v>
+        <v>0.3686706374106996</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1316</v>
@@ -4708,19 +4708,19 @@
         <v>1392088</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1323145</v>
+        <v>1328708</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1448303</v>
+        <v>1454311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3449110708794674</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3278293748509734</v>
+        <v>0.3292078739955427</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3588391901148142</v>
+        <v>0.3603278731581304</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>181529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>158992</v>
+        <v>158500</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>206307</v>
+        <v>205448</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3330930027262792</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2917403529685422</v>
+        <v>0.2908366464284601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3785604578042935</v>
+        <v>0.3769841518924817</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>157</v>
@@ -4833,19 +4833,19 @@
         <v>169581</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>145847</v>
+        <v>149857</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>192011</v>
+        <v>192318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3094122487030937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2661079707934901</v>
+        <v>0.2734238406249674</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3503360811309253</v>
+        <v>0.3508959571256583</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>321</v>
@@ -4854,19 +4854,19 @@
         <v>351110</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>316638</v>
+        <v>321378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>382850</v>
+        <v>386575</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.321219076314292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2896819942162863</v>
+        <v>0.2940180003296433</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3502569133468136</v>
+        <v>0.3536645804549893</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>183715</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>162131</v>
+        <v>160822</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>204236</v>
+        <v>206627</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3371039207171115</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2974997906782866</v>
+        <v>0.295097684799473</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3747585442004543</v>
+        <v>0.37914644349196</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>171</v>
@@ -4904,19 +4904,19 @@
         <v>176884</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>155006</v>
+        <v>154433</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>199799</v>
+        <v>199221</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.322736320181345</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2828181818858668</v>
+        <v>0.2817732677680678</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3645457967187902</v>
+        <v>0.3634920268314802</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>341</v>
@@ -4925,19 +4925,19 @@
         <v>360599</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>329550</v>
+        <v>331466</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>396038</v>
+        <v>394359</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.329899765337959</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.301494866586245</v>
+        <v>0.3032475822502314</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3623217178401795</v>
+        <v>0.3607860056414854</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>120557</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>101847</v>
+        <v>101613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141491</v>
+        <v>140504</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2212142570099945</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1868828030754397</v>
+        <v>0.1864526058293214</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2596272132103151</v>
+        <v>0.2578145446003473</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>122</v>
@@ -4975,19 +4975,19 @@
         <v>124632</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105879</v>
+        <v>104939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>144436</v>
+        <v>144471</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2273999333012078</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1931838891610207</v>
+        <v>0.1914675455062808</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2635327648694164</v>
+        <v>0.263596051081134</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -4996,19 +4996,19 @@
         <v>245190</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>217907</v>
+        <v>217585</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>274894</v>
+        <v>273132</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2243158586320682</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1993556730421127</v>
+        <v>0.1990612514611211</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2514915320461069</v>
+        <v>0.2498794501127009</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>59179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45531</v>
+        <v>44953</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>74936</v>
+        <v>74462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1085888195466148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08354676509325218</v>
+        <v>0.08248640777285239</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1375017785700003</v>
+        <v>0.1366324644291338</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -5046,19 +5046,19 @@
         <v>76978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>61821</v>
+        <v>62699</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96351</v>
+        <v>95534</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1404514978143535</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1127957717272236</v>
+        <v>0.1143977351890104</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1757994256853174</v>
+        <v>0.1743084853034554</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>127</v>
@@ -5067,19 +5067,19 @@
         <v>136157</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112910</v>
+        <v>115334</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>160829</v>
+        <v>161261</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1245652997156808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1032978765092206</v>
+        <v>0.1055154215520724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1471367931494154</v>
+        <v>0.1475321400602055</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>504871</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>463885</v>
+        <v>463576</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>546003</v>
+        <v>545616</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1506830756929498</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1384505123460134</v>
+        <v>0.1383583071528486</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1629591180350294</v>
+        <v>0.1628436192833915</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>451</v>
@@ -5192,19 +5192,19 @@
         <v>485253</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>446217</v>
+        <v>442867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>532192</v>
+        <v>525366</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1380774587995239</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1269700308026609</v>
+        <v>0.1260167889957861</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1514338942270346</v>
+        <v>0.1494916028393878</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>920</v>
@@ -5213,19 +5213,19 @@
         <v>990124</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>929937</v>
+        <v>935863</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1049303</v>
+        <v>1052539</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1442298780487581</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.135462510064846</v>
+        <v>0.1363257104907037</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1528504334236447</v>
+        <v>0.1533218642008898</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>817321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>769570</v>
+        <v>761237</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>869306</v>
+        <v>867646</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2439365032464896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2296845851771134</v>
+        <v>0.2271977198167125</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2594518310685743</v>
+        <v>0.2589564246122049</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>725</v>
@@ -5263,19 +5263,19 @@
         <v>768124</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>718271</v>
+        <v>718495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>817756</v>
+        <v>813101</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2185678166319414</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2043821982536896</v>
+        <v>0.2044458722522769</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2326904427854642</v>
+        <v>0.2313658268693923</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1506</v>
@@ -5284,19 +5284,19 @@
         <v>1585445</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1512725</v>
+        <v>1512371</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1657234</v>
+        <v>1657629</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2309495030797132</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2203563541399222</v>
+        <v>0.2203048997290795</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2414068875881669</v>
+        <v>0.2414643127013749</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>908825</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>859260</v>
+        <v>858971</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>962728</v>
+        <v>960220</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2712464725929821</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2564532927717866</v>
+        <v>0.2563672776528708</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2873344128865664</v>
+        <v>0.2865857000634605</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>949</v>
@@ -5334,19 +5334,19 @@
         <v>1004492</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>952613</v>
+        <v>948353</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1061454</v>
+        <v>1054042</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2858256520625256</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2710636212118343</v>
+        <v>0.2698515789759103</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3020341850428281</v>
+        <v>0.299925040437705</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1830</v>
@@ -5355,19 +5355,19 @@
         <v>1913317</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1840083</v>
+        <v>1841318</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2004851</v>
+        <v>1990760</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2787099967824387</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2680421619831643</v>
+        <v>0.2682221247776607</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2920436195280959</v>
+        <v>0.2899910204812375</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>1119533</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1064938</v>
+        <v>1061417</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1174949</v>
+        <v>1175109</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3341339484675784</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3178398422571127</v>
+        <v>0.31678875262821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.350673417821986</v>
+        <v>0.3507211910606464</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1185</v>
@@ -5405,19 +5405,19 @@
         <v>1256483</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1198107</v>
+        <v>1195276</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1317001</v>
+        <v>1310937</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3575290725060091</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3409184780922265</v>
+        <v>0.3401128898331376</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3747494575504083</v>
+        <v>0.3730239286318676</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2243</v>
@@ -5426,19 +5426,19 @@
         <v>2376015</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2296412</v>
+        <v>2288299</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2458748</v>
+        <v>2456482</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.34611062208909</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3345148782253871</v>
+        <v>0.3333331540112371</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3581621563809296</v>
+        <v>0.3578321591123753</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>98003</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79575</v>
+        <v>80891</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117107</v>
+        <v>116671</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.173171211220507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1406089042110281</v>
+        <v>0.1429333013493023</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2069269100897327</v>
+        <v>0.2061562231283119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>160</v>
@@ -5790,19 +5790,19 @@
         <v>95209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82261</v>
+        <v>81529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110984</v>
+        <v>110852</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1174904091659249</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1015113932250277</v>
+        <v>0.1006090509017809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1369561807405177</v>
+        <v>0.1367934062155416</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>271</v>
@@ -5811,19 +5811,19 @@
         <v>193213</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>172171</v>
+        <v>172463</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>217198</v>
+        <v>215863</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1403864171984171</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1250980440272546</v>
+        <v>0.1253100945260801</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1578141410756324</v>
+        <v>0.1568442866146423</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>103816</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88420</v>
+        <v>88050</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122764</v>
+        <v>122626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1834413287093499</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1562367301213922</v>
+        <v>0.1555844245508973</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2169224826689213</v>
+        <v>0.2166793336615876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>298</v>
@@ -5861,19 +5861,19 @@
         <v>166747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>151085</v>
+        <v>150111</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184253</v>
+        <v>183373</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.205769596639141</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1864419988374742</v>
+        <v>0.1852396281558289</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2273726429228609</v>
+        <v>0.2262862687946883</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>437</v>
@@ -5882,19 +5882,19 @@
         <v>270563</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247109</v>
+        <v>247440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>296654</v>
+        <v>296891</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1965881879128264</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1795468821755534</v>
+        <v>0.1797877455022986</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2155462308083642</v>
+        <v>0.2157179726124842</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>200828</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>180464</v>
+        <v>179495</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>223512</v>
+        <v>223087</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3548611570820496</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3188792434013243</v>
+        <v>0.3171673885143846</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3949439165326566</v>
+        <v>0.3941937650559628</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>572</v>
@@ -5932,19 +5932,19 @@
         <v>321357</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>300856</v>
+        <v>301351</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>343108</v>
+        <v>344402</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3965613336622769</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3712624749422644</v>
+        <v>0.3718732429442183</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4234023523591097</v>
+        <v>0.4249987687964301</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>828</v>
@@ -5953,19 +5953,19 @@
         <v>522184</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>488885</v>
+        <v>490352</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>552643</v>
+        <v>550939</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.379414174449281</v>
+        <v>0.3794141744492809</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3552188946303231</v>
+        <v>0.3562851610505164</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4015448518384865</v>
+        <v>0.4003068562568415</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>163287</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>143885</v>
+        <v>143029</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>185388</v>
+        <v>183462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2885263029880936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2542430435570665</v>
+        <v>0.2527309768096593</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3275798771083923</v>
+        <v>0.3241756715131173</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>373</v>
@@ -6003,19 +6003,19 @@
         <v>227045</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>208387</v>
+        <v>209077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>248038</v>
+        <v>248893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2801786605326572</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2571542084388093</v>
+        <v>0.2580057184800905</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3060844178032029</v>
+        <v>0.3071391845676089</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>546</v>
@@ -6024,19 +6024,19 @@
         <v>390332</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>360776</v>
+        <v>360250</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>421416</v>
+        <v>422183</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2836112204394755</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.262136753792055</v>
+        <v>0.2617538799028893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3061969542769906</v>
+        <v>0.3067541062563583</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>507237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>463151</v>
+        <v>465419</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>556594</v>
+        <v>556143</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2306222802782587</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2105780246838105</v>
+        <v>0.2116093039869343</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2530630341291053</v>
+        <v>0.2528579396779939</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>657</v>
@@ -6149,19 +6149,19 @@
         <v>466122</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>429765</v>
+        <v>433686</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>503379</v>
+        <v>504572</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2160428669555175</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1991915344918476</v>
+        <v>0.2010087802861648</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2333108698128612</v>
+        <v>0.2338638750349921</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1111</v>
@@ -6170,19 +6170,19 @@
         <v>973359</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>916910</v>
+        <v>914220</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1040812</v>
+        <v>1029911</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2234026462426867</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2104466768164515</v>
+        <v>0.2098291886685419</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2388840935795863</v>
+        <v>0.2363821705264818</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>704055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>654593</v>
+        <v>660192</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>756831</v>
+        <v>757468</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3201084102977528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2976199636771008</v>
+        <v>0.3001655095397662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3441036013877497</v>
+        <v>0.3443931677171911</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>890</v>
@@ -6220,19 +6220,19 @@
         <v>634813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>596055</v>
+        <v>596205</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>676404</v>
+        <v>673079</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2942292707340461</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2762650532656991</v>
+        <v>0.2763349337763895</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3135062106879863</v>
+        <v>0.3119649158739867</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1565</v>
@@ -6241,19 +6241,19 @@
         <v>1338868</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1272267</v>
+        <v>1274902</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1397729</v>
+        <v>1402252</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3072932226993589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2920071980655184</v>
+        <v>0.2926118108549547</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3208027479524536</v>
+        <v>0.3218409868173723</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>674942</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628419</v>
+        <v>627494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>731014</v>
+        <v>728327</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3068718226242463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2857193772128213</v>
+        <v>0.2852987975190347</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3323656699822918</v>
+        <v>0.331144096746521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>918</v>
@@ -6291,19 +6291,19 @@
         <v>701810</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>662062</v>
+        <v>662561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>742812</v>
+        <v>742874</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3252815665367922</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.306858928357164</v>
+        <v>0.3070898799762232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3442856108952084</v>
+        <v>0.3443144775370096</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1501</v>
@@ -6312,19 +6312,19 @@
         <v>1376752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1308123</v>
+        <v>1314938</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1436310</v>
+        <v>1438850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3159882123441167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3002365968732437</v>
+        <v>0.3018008571758751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3296576585590885</v>
+        <v>0.3302407952440452</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>313193</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>276134</v>
+        <v>279092</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>352019</v>
+        <v>353671</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1423974867997421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1255481457478791</v>
+        <v>0.1268928270014422</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1600502547712814</v>
+        <v>0.1608014290445156</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>438</v>
@@ -6362,19 +6362,19 @@
         <v>354800</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>322325</v>
+        <v>321639</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>387028</v>
+        <v>388249</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1644462957736443</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1493944870356484</v>
+        <v>0.1490762153861072</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1793832040907997</v>
+        <v>0.179949199182821</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>701</v>
@@ -6383,19 +6383,19 @@
         <v>667993</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>619195</v>
+        <v>618377</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>721638</v>
+        <v>715562</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1533159187138377</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1421159720411453</v>
+        <v>0.1419280732811145</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1656282034070694</v>
+        <v>0.1642338596987065</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>365317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335114</v>
+        <v>336706</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>392106</v>
+        <v>393199</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5163662638371123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4736744104674822</v>
+        <v>0.4759243753173895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5542313250641918</v>
+        <v>0.55577657338238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>500</v>
@@ -6508,19 +6508,19 @@
         <v>344915</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>319768</v>
+        <v>322593</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367983</v>
+        <v>371465</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4766704724973508</v>
+        <v>0.4766704724973507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4419175511772481</v>
+        <v>0.4458207923819884</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5085492371107061</v>
+        <v>0.5133613853730159</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>876</v>
@@ -6529,19 +6529,19 @@
         <v>710233</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>671763</v>
+        <v>673133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>745620</v>
+        <v>747676</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4962948532771397</v>
+        <v>0.4962948532771396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4694128672067264</v>
+        <v>0.4703701166880169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.521022485060023</v>
+        <v>0.5224597049522162</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>236826</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>210299</v>
+        <v>211509</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>266058</v>
+        <v>268518</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3347475205000772</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2972518345861381</v>
+        <v>0.2989624893033722</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3760653403468047</v>
+        <v>0.3795434062306616</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>326</v>
@@ -6579,19 +6579,19 @@
         <v>244815</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>223772</v>
+        <v>224599</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>268729</v>
+        <v>270071</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3383318736524053</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3092509866897344</v>
+        <v>0.3103942146368057</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3713816908011096</v>
+        <v>0.3732355371280899</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>539</v>
@@ -6600,19 +6600,19 @@
         <v>481641</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>445926</v>
+        <v>445003</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>518156</v>
+        <v>516609</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3365598794752779</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3116031130837867</v>
+        <v>0.310958066444283</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3620757371807958</v>
+        <v>0.3609945903136237</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>83074</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65477</v>
+        <v>65926</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106479</v>
+        <v>103819</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1174222527186479</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09254943255172131</v>
+        <v>0.09318470081509946</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.150505445358756</v>
+        <v>0.1467449684550053</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>116</v>
@@ -6650,19 +6650,19 @@
         <v>92128</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77116</v>
+        <v>76779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109933</v>
+        <v>109499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1273206540103926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1065738157654141</v>
+        <v>0.1061081634116045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1519269140397476</v>
+        <v>0.1513268461193504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -6671,19 +6671,19 @@
         <v>175202</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>151727</v>
+        <v>151315</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204339</v>
+        <v>200626</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1224271882422526</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1060233105314148</v>
+        <v>0.1057356410332355</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1427874849790934</v>
+        <v>0.14019269562475</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>22260</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12954</v>
+        <v>13598</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34781</v>
+        <v>36374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03146396294416251</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01830950507091292</v>
+        <v>0.01922105851375815</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04916225951265582</v>
+        <v>0.05141428628130042</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -6721,19 +6721,19 @@
         <v>41735</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30833</v>
+        <v>30628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57194</v>
+        <v>56301</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05767699983985132</v>
+        <v>0.05767699983985131</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0426105808218185</v>
+        <v>0.04232697346566747</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07904100125917941</v>
+        <v>0.07780789115785754</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -6742,19 +6742,19 @@
         <v>63995</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>49060</v>
+        <v>49807</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>83221</v>
+        <v>84127</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0447180790053299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03428219281532457</v>
+        <v>0.03480375281439977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05815278280616946</v>
+        <v>0.05878640964388718</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>970557</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>907345</v>
+        <v>917573</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>1032328</v>
+        <v>1030011</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2794710753248287</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2612689827168388</v>
+        <v>0.2642141709400784</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2972577529552818</v>
+        <v>0.2965907985540257</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1317</v>
@@ -6867,19 +6867,19 @@
         <v>906247</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>861317</v>
+        <v>863761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>954983</v>
+        <v>954319</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2454958052600651</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2333246954314695</v>
+        <v>0.233986512274389</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2586979169673217</v>
+        <v>0.2585180901563041</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2258</v>
@@ -6888,19 +6888,19 @@
         <v>1876805</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1805663</v>
+        <v>1803419</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1959204</v>
+        <v>1949373</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2619649657548985</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2520349605181711</v>
+        <v>0.251721751024943</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2734662826462601</v>
+        <v>0.2720940994842079</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>1044697</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>989670</v>
+        <v>980217</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1106707</v>
+        <v>1106683</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3008194213585212</v>
+        <v>0.3008194213585211</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2849745784243827</v>
+        <v>0.2822524331641042</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3186751544195678</v>
+        <v>0.3186681443534606</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1514</v>
@@ -6938,19 +6938,19 @@
         <v>1046375</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1001159</v>
+        <v>999928</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1100864</v>
+        <v>1100304</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2834553926723781</v>
+        <v>0.2834553926723782</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2712068333469077</v>
+        <v>0.2708733641925197</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2982161478193557</v>
+        <v>0.2980645159042091</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2541</v>
@@ -6959,19 +6959,19 @@
         <v>2091072</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2012990</v>
+        <v>2012945</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2168552</v>
+        <v>2170461</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2918724258475042</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2809737486964239</v>
+        <v>0.2809674720712289</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3026871574650155</v>
+        <v>0.3029536062202889</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>958843</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>904472</v>
+        <v>902501</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1018391</v>
+        <v>1018349</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2760979880905473</v>
+        <v>0.2760979880905472</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2604418145799737</v>
+        <v>0.259874303096548</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2932446011660699</v>
+        <v>0.2932324942150621</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1606</v>
@@ -7009,19 +7009,19 @@
         <v>1115295</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1064683</v>
+        <v>1065349</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1166742</v>
+        <v>1164620</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.3021253987711603</v>
+        <v>0.3021253987711604</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2884149814735193</v>
+        <v>0.2885954547038501</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3160619061508639</v>
+        <v>0.3154873138379589</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2515</v>
@@ -7030,19 +7030,19 @@
         <v>2074138</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2001566</v>
+        <v>1999985</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2151398</v>
+        <v>2150937</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2895088808465974</v>
+        <v>0.2895088808465973</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2793792834269538</v>
+        <v>0.2791585158292641</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3002928749223569</v>
+        <v>0.3002284053193829</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>498739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>452965</v>
+        <v>455316</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>545661</v>
+        <v>548852</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.143611515226103</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1304308593182729</v>
+        <v>0.1311076543928618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1571225106089056</v>
+        <v>0.1580414268863335</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>861</v>
@@ -7080,19 +7080,19 @@
         <v>623580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>582764</v>
+        <v>582091</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>669741</v>
+        <v>665601</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1689234032963963</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1578665483949151</v>
+        <v>0.157684381968925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1814279539651346</v>
+        <v>0.1803064643839306</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1316</v>
@@ -7101,19 +7101,19 @@
         <v>1122320</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1062142</v>
+        <v>1060820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1184457</v>
+        <v>1178594</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.156653727551</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1482541747220992</v>
+        <v>0.1480695386993848</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1653268461291947</v>
+        <v>0.1645085653799081</v>
       </c>
     </row>
     <row r="23">
